--- a/Data/Dataset of Cyberattacks on Ukraine.xlsx
+++ b/Data/Dataset of Cyberattacks on Ukraine.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Аркуш1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Аркуш2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4352" uniqueCount="703">
   <si>
     <t>News publication date</t>
   </si>
@@ -4108,37 +4109,7 @@
     <t>Ukraine’s national postal service Ukrposhta said it was hit by a DDoS a few days after it issued and started selling stamps associated with the war.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://cyberpeaceinstitute.org/ukraine-timeline-of-cyberattacks/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"> ;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://cyberpeaceinstitute.org/ukraine-timeline-of-cyberattacks/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"> ;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.forbes.com/sites/carlieporterfield/2022/04/22/ukraine-postal-service-hit-with-cyberattack-after-selling-viral-anti-russia-stamps/?sh=1b42d0635e60</t>
-    </r>
+    <t>https://www.forbes.com/sites/carlieporterfield/2022/04/22/ukraine-postal-service-hit-with-cyberattack-after-selling-viral-anti-russia-stamps/?sh=1b42d0635e60</t>
   </si>
   <si>
     <t>sites of telecommunication companies of Ukraine</t>
@@ -6449,6 +6420,229 @@
   <si>
     <t>https://cert.gov.ua/article/10011</t>
   </si>
+  <si>
+    <t>http://tridiuma.ru/scaffold.php
+tridiuma.ru
+http://barbatus.online/get.php
+http://188.225.37.128/index.php</t>
+  </si>
+  <si>
+    <t>%PUBLIC% \Documents\
+%APPDATA%\Microsoft\
+schtasks /Create /SC MINUTE /MO 15 /F /tn PublicFolderDownload /tr \Documents\inspection.exe //b \Documents\inspection.vbs, 0, False.
+schtasks /Create /SC MINUTE /MO 13 /F /tn HelpOffice /tr "%APPDATA%\Microsoft\say\say.exe //b %APPDATA%\Microsoft\say\say.vbs"
+C:\Windows\SysWOW64\PING.EXE ping tridiuma.ru
+SCHTASKS /CREATE /sc minute /mo 5 /tn "" /tr "%USERPROFILE%\UserSupport\UserSupport.exe" /F</t>
+  </si>
+  <si>
+    <t>03.03.2021 відбулась масова розсилка по державним органам України фішингових листів зі вкладеним шкідливим програмним забезпеченням начебто від Київської міської прокуратури. Листи відправлялись з пошти administracija@gargzduspc.lt . Тема листа «Київська міська прокуратура».
+Вкладення містило в собі ZIP архів «Електронний запит документів.zip», який містив в собі RAR-архів  «Електронний запит документів.rar», який містив .EXE файл «Електронний запит документів.exe». 
+Під час запуску .exe файлу відбувається інсталяція програмного забезпечення Remote Utilities (hXXps://www.remoteutilities[.]com або hXXps://rmansys[.]ru). Зазначене програмне забезпечення це легітимне програмне забезпечення для віддаленого доступу, тому його запуск може не виявлятись антивірусами.
+В даний час на VirusTotal його виявляють всього 3 антивіруси. https://www.virustotal.com/.../7a986db7a9d76e88.../detection.
+Зазначена кібератака та інструменти, які в ній використовуються подібні до кібератаки, яка відбулась 19.01.2021 і описана на сайті CERT-UA
+https://cert.gov.ua/article/10011.</t>
+  </si>
+  <si>
+    <t>09.03.2021 відбулась масова розсилка по державним органам України фішингових листів зі вкладеним шкідливим програмним забезпеченням начебто від Державної судової адміністрації України. Тема листа «Судовий запит № 99182794».
+Вкладення містило в собі ZIP архів «Електронний запит документів.zip», який містив в собі RAR-архів «Електронний запит документів.rar», який містив .EXE файл «Електронний запит документів.exe». 
+Під час запуску .exe файлу відбувається інсталяція програмного забезпечення Remote Utilities (hXXps://www.remoteutilities[.]com або hXXps://rmansys[.]ru). 
+Зазначена кібератака та інструменти, які в ній використовуються, подібні до кібератаки, яка відбулась 19.01.2021 і описана на сайті CERT-UA:
+https://cert.gov.ua/article/10011</t>
+  </si>
+  <si>
+    <t>22.03.2021 відбулась масова розсилка по державним органам України фішингових листів зі вкладеним шкідливим програмним забезпеченням начебто від Суворовського районного суду м. Одеси. Тема листа «Судовий запит № 765251150».
+Вкладення містило в собі ZIP архів «Електронний судовий запит.zip», який містив в собі RAR-архів «Електронний судовий запит № 0990092883737373.rar», який містив .EXE файл «Електронний судовий запит № 0990092883737373.docx.exe». 
+Під час запуску .exe файлу відбувається інсталяція програмного забезпечення Remote Utilities (hXXps://www.remoteutilities[.]com або hXXps://rmansys[.]ru). 
+Зазначена кібератака та інструменти, які в ній використовуються, подібні до кібератаки, яка відбулась 19.01.2021 та 09.03.2021 і описана на сайті CERT-UA:
+https://cert.gov.ua/article/10011</t>
+  </si>
+  <si>
+    <t>Вразливості Cisco Jabber .
+Компанія Cisco 25.03.2021 опублікувала інформацію про вразливості в Cisco Jabber для Windows, Cisco Jabber для MacOS, а також Cisco Jabber для мобільних платформ, які можуть дозволити зловмиснику виконувати довільні програми з основної операційної системи з підвищеними привілеями, отримувати доступ до конфіденційної інформації, перехоплювати захищений мережевий трафік або спричиняти відмову в обслуговуванні (DOS) кінцевого пристрою.
+Вразливості (CVE-2021-1411, CVE-2021-1417, CVE-2021-1418, CVE-2021-1469, CVE-2021-1471) не залежать одна від одної.
+Якщо ви використовуєте Cisco Jabber у своїй роботі радимо негайно здійснити оновлення зазначеного програмного забезпечення до актуальної версії.
+Для отримання більш детальної інформації про вразливості перейдіть за посиланням:
+https://tools.cisco.com/.../cisco-sa-cisco-jabber...</t>
+  </si>
+  <si>
+    <t>hXXp://31.42.185[.]63:8080/upld/D6BDA66A
+hXXp://name1d[.]site/index333.txt
+hXXp://gosloto[.]site/doc221/form_request.doc
+195.128.123[.]215 
+185.232.170[.]29 
+51.254.63[.]225
+31.42.185[.]63
+mil.gov.ua</t>
+  </si>
+  <si>
+    <t>Відновилися масові розсилки на електронні поштові адреси державних органів України фішингових листів зі вкладеним бекдором Remote Utilities або посиланнями на його завантаження. 
+Листи направляються з різних поштових адрес, використовуючи спуфінг. Містять запит  начебто від Національної Поліції України  щодо надання відомостей та спонукають відкрити додаток, який прикріплено до листа.
+Архів містить програмне забезпечення Remote Utilities (hXXps://www.remoteutilities[.]com або hXXps://rmansys[.]ru). 
+Зазначена кібератака та інструменти, які в ній використовуються, подібні до кібератак, які відбувались 13.03.2021, 09.03.2021, 23.03.2021, 19.01.2021 і описані на сайті CERT-UA:
+https://cert.gov.ua/article/10011</t>
+  </si>
+  <si>
+    <t>Продовжуються масові розсилки на електронні поштові адреси державних органів України фішингових листів зі вкладеним шкідливим програмним забезпеченням або посиланнями на його завантаження.
+Листи містять інформацію начебто від Нової пошти, щодо відправлення вантажу та спонукають перейти за посиланням для перегляду деталей відправлення.
+За посиланням знаходиться архів, що містить шкідливе програмне забезпечення Agent Tesla.
+Ознайомитись з описом відповідного сімейства ШПЗ можливо за посиланням: https://cert.gov.ua/article/3028</t>
+  </si>
+  <si>
+    <t>Корпорація Майкрософт випустила оновлення безпеки для усунення вразливості віддаленого виконання коду (RCE) - відомої як PrintNightmare (CVE-2021-34527) - у службі Windows Print spooler.
+Оновлення містять усі попередні виправлення, а також захист для CVE-2021-1675. Оновлення не включають Windows 10 версії 1607, Windows Server 2012 або Windows Server 2016 - Microsoft заявляють, що оновлення цих версій очікуються. 
+Відповідно до CERT/CC, оновлення Microsoft для CVE-2021-34527, стосується лише способів віддаленого виконання коду (RCE через SMB та RPC) PrintNightmare, а не способу Local Privilege Escalation (LPE)». Перегляньте примітку про вразливість CERT/CC # 383432 щодо оновлення для LPE.
+Рекомендуємо користувачам та адміністраторам переглянути оновлення безпеки Microsoft, а також примітку про вразливість CERT/CC та застосувати необхідні оновлення:
+https://msrc.microsoft.com/.../vulnerability/CVE-2021-34527
+https://www.kb.cert.org/vuls/id/383432</t>
+  </si>
+  <si>
+    <t>Нагадуємо про необхідність своєчасного оновлення програмного забезпечення.
+Microsoft випустили оновлення безпеки для усунення вразливостей в своєму програмному забезпеченні. Рекомендуємо переглянути та встановити необхідні оновлення:
+https://msrc.microsoft.com/update-guide/releaseNote/2021-Nov 
+https://msrc.microsoft.com/update-guide/deployments 
+VMware випустили рекомендації щодо безпеки для усунення вразливості підвищення привілеїв у vCenter Server та Cloud Foundation. Ознайомитись можна за посиланням:
+https://www.vmware.com/sec.../advisories/VMSA-2021-0025.html
+Версія Google Chrome 96 (96.0.4664.36) для iOS буде доступна в App Store через кілька днів. Ознайомитись можна за посиланням:
+https://chromereleases.googleblog.com/.../chrome-for-ios...
+SAP випустили оновлення безпеки для усунення вразливостей у кількох продуктах. Рекомендуємо переглянути та встановити необхідні оновлення:
+https://wiki.scn.sap.com/wiki/pages/viewpage.action...
+Adobe випустили оновлення безпеки для усунення вразливостей у кількох продуктах. Рекомендуємо переглянути та встановити необхідні оновлення:
+RoboHelp:
+https://helpx.adobe.com/.../robohelp-server/apsb21-87.html 
+InCopy:
+https://helpx.adobe.com/.../products/incopy/apsb21-110.html 
+Creative Cloud Desktop Application:
+https://helpx.adobe.com/.../creative-cloud/apsb21-111.html 
+CISA опублікувала рекомендації щодо промислових систем управління (ICS), де детально описано численні вразливості, виявлені в операційних системах реального часу Siemens Nucleus (RTOS) і допоміжних бібліотеках. Ознайомитись можна за посиланням:
+https://us-cert.cisa.gov/ics/advisories/icsa-21-313-03 
+Citrix випустили оновлення безпеки для усунення вразливостей у кількох версіях Citrix Application Delivery Controller (ADC), Gateway та SD-WAN WANOP. Рекомендуємо переглянути та встановити необхідні оновлення:
+https://support.citrix.com/article/CTX330728 
+Samba випустили оновлення безпеки для усунення вразливостей у кількох версіях Samba. Рекомендуємо переглянути та встановити необхідні оновлення:
+CVE-2016-2124:
+https://www.samba.org/samba/security/CVE-2016-2124.html 
+CVE-2020-25717:
+https://www.samba.org/samba/security/CVE-2020-25717.html 
+CVE-2020-25718:
+https://www.samba.org/samba/security/CVE-2020-25718.html 
+CVE-2020-25719:
+https://www.samba.org/samba/security/CVE-2020-25719.html 
+CVE-2020-25721:
+https://www.samba.org/samba/security/CVE-2020-25721.html 
+CVE-2020-25722:
+https://www.samba.org/samba/security/CVE-2020-25722.html 
+CVE-2021-3738:
+https://www.samba.org/samba/security/CVE-2021-3738.html 
+CVE-2021-23192:
+https://www.samba.org/samba/security/CVE-2021-23192.html 
+Palo Alto Networks (PAN) надали рекомендації для усунення вразливості CVE-2021-3064 Protect VPN версії PAN-OS. Ознайомитись з рекомендаціями можна посиланням:
+https://security.paloaltonetworks.com/CVE-2021-3064...</t>
+  </si>
+  <si>
+    <t>Звертаємо Вашу увагу на вразливість (CVE-2021-41379), що присутня на всіх версіях Microsoft Windows, яка дозволяє зловмиснику підвищити права доступу. Код експлойту даної вразливості є у відкритому доступі під назвою InstallerFileTakeOver. Вже помічені зразки шкідливого програмного забезпечення, які використовують цю вразливість. В Microsoft, поки що відсутнє оновлення безпеки, яке усуває цю вразливість.
+Для захисту та виявлення спроб експлуатації зазначеної вразливості радимо скористатися правилами SNORT, запропонованими Talos: https://snort.org/advisories/talos-rules-2021-11-23.
+Також, радимо включити автоматичні оновлення Windows та оновити свої ОС одразу, коли випустять оновлення безпеки, яке усуває зазначену вразливість. 
+Інформація щодо вразливості на офіційному сайті Microsoft: https://msrc.microsoft.com/.../vulnerability/CVE-2021-41379
+ID події в MISP CERT-UA:
+https://misp.cert.gov.ua/events/view/1613</t>
+  </si>
+  <si>
+    <t>Новини та рекомендації кібербезпеки.
+CISA опублікувала рекомендації щодо Автоматизованих систем керування (ICSA), пов’язаних з публічним звітом, де детально описані вразливості, виявлені в кількох реалізаціях служби розповсюдження даних (DDS) групи управління об'єктами (OMG) з відкритим вихідним кодом та власністю. Рекомендуємо переглянути та встановити необхідні оновлення:
+https://us-cert.cisa.gov/ics/advisories/icsa-21-315-02 
+CISA і Федеральне бюро розслідувань (ФБР) опублікували спільну рекомендацію з кібербезпеки, яка ідентифікує активне використання вразливості — CVE-2021-44077 — у Zoho ManageEngine ServiceDesk Plus. Ознайомитись можна за посиланням:
+https://us-cert.cisa.gov/ncas/alerts/aa21-336a
+Також нагадуємо про необхідність своєчасного оновлення програмного забезпечення.
+VMware випустила оновлення безпеки для усунення численних вразливостей у vCenter Server і Cloud Foundation. Рекомендуємо переглянути та встановити необхідні оновлення:
+https://www.vmware.com/sec.../advisories/VMSA-2021-0027.html
+Palo Alto Networks випустили оновлення безпеки для усунення вразливостей, що вражають конфігурації брандмауера PAN-OS з інтерфейсами порталу та шлюзу GlobalProtect (8.1.16 та старіших версій). Рекомендуємо переглянути та встановити необхідні оновлення:
+https://security.paloaltonetworks.com/CVE-2021-3064 
+Компанія Google випустила оновлення Chrome 96 для iOS та Android. Ознайомитись можна за посиланнями:
+- Chrome 96 (96.0.4664.45) для Android:
+https://chromereleases.googleblog.com/.../chrome-for... 
+- Chrome 96 (96.0.4664.53) для iOS:
+https://chromereleases.googleblog.com/.../chrome-for-ios... 
+Mozilla випустила оновлення безпеки для усунення вразливості в службах безпеки мережі (NSS). Рекомендуємо переглянути та встановити необхідні оновлення:
+https://www.mozilla.org/.../security/advisories/mfsa2021-51/ 
+Drupal випустив оновлення безпеки для усунення вразливостей, які можуть вплинути на версії 8.9, 9.1 і 9.2. Рекомендуємо переглянути та встановити необхідні оновлення:
+https://www.drupal.org/sa-core-2021-011</t>
+  </si>
+  <si>
+    <t>Критична вразливість Log4Shell (RCE).
+Вразливість Java бібліотеки log4j CVE-2021-44228 дозволяє зловмисникам здійснити віддалене виконання коду та повністю скомпрометувати вразливу машину. 
+В мережі вже опубліковано експлойт вразливості, і наразі зловмисники активно шукають в мережі вразливі хости з метою подальшої їх компрометації. Зараз вразливість експлуатується з метою завантаження на вразливі сервери криптомайнерів. 
+Вразливість виправлено у версії 2.15.0.
+Рекомендуємо негайно оновити log4j до останньої версії.
+Останню версію Log4J можна знайти за посиланням: 
+https://logging.apache.org/log4j/2.x/download.html</t>
+  </si>
+  <si>
+    <t>Нагадуємо про необхідність своєчасного оновлення програмного забезпечення.
+OpenSSL випустив оновлення безпеки, які усувають уразливість, яка впливає на кілька версій OpenSSL. Рекомендуємо переглянути та встановити необхідні оновлення:
+https://www.openssl.org/news/secadv/20220315.txt 
+Cisco випустила оновлення безпеки для усунення вразливостей у багатьох продуктах. Рекомендуємо переглянути та встановити необхідні оновлення:
+- Cisco Expressway Series and Cisco TelePresence Video Communication Server Vulnerabilities 
+https://tools.cisco.com/.../cisco-sa-expressway-filewrite... 
+- Cisco Ultra Cloud Core - Subscriber Microservices Infrastructure Privilege Escalation Vulnerability  
+https://tools.cisco.com/.../cisco-sa-uccsmi-prvesc-BQHGe4cm 
+- Cisco Identity Services Engine RADIUS Service Denial of Service Vulnerability
+https://tools.cisco.com/.../Cis.../cisco-sa-ise-dos-JLh9TxBp 
+Щоб дізнатися про оновлення, що стосуються вразливостей меншої серйозності, див https://tools.cisco.com/security/center/publicationListing.x 
+Корпорація Майкрософт випустила оновлення для усунення численних вразливостей програмного забезпечення Microsoft. Рекомендуємо переглянути та встановити необхідні оновлення:
+https://msrc.microsoft.com/update-guide/en-us
+https://msrc.microsoft.com/update-guide/deployments%C2%A0 
+Apple випустила оновлення безпеки для усунення вразливостей у багатьох продуктах. Рекомендуємо переглянути та встановити необхідні оновлення:
+https://support.apple.com/en-us/HT201222 
+WordPress випустили оновлення до версії 5.9.2. Рекомендуємо переглянути та встановити необхідні оновлення:
+https://wordpress.org/.../wordpress-5-9-2-security.../
+Google випустив Chrome версію 99.0.4844.74 для Windows, Mac і Linux, Chrome 99 (99.0.4844.73) для Android, Chrome 99 (99.0.4844.59) для iOS. Рекомендуємо переглянути та встановити необхідні оновлення:
+- Chrome 99:
+https://chromereleases.googleblog.com/.../stable-channel... 
+- Chrome 99 для Android:
+https://chromereleases.googleblog.com/.../chrome-for... 
+- Chrome 99 для iOS:
+https://chromereleases.googleblog.com/.../chrome-for-ios... 
+Adobe випустила оновлення безпеки для усунення вразливостей у багатьох продуктах. Рекомендуємо переглянути та встановити необхідні оновлення:
+- Photoshop 
+https://helpx.adobe.com/.../prod.../photoshop/apsb22-14.html
+- Illustrator 
+https://helpx.adobe.com/.../illustrator/apsb22-15.html
+- After Effects 
+https://helpx.adobe.com/.../after_effects/apsb22-17.html
+Консорціум Інтернет-систем (ISC) опублікував рекомендації щодо безпеки, які усувають уразливості, що впливають на декілька версій домену ISC Berkeley Internet Name Domain (BIND). Ознайомитись детальніше можна за посиланнями:
+- CVE-2021-25220
+- CVE-2022-0396
+- CVE-2022-0635
+- CVE-2022-0667
+Drupal випустив оновлення безпеки для усунення вразливостей, що впливають на Drupal 9.2 та 9.3. Рекомендуємо переглянути та встановити необхідні оновлення:
+https://www.drupal.org/sa-core-2022-005 
+SAP випустила оновлення безпеки для усунення вразливостей, що впливають на декілька продуктів. Рекомендуємо переглянути та встановити необхідні оновлення:
+https://dam.sap.com/mac/app/e/pdf/preview/embed/ucQrx6G... 
+CISA випустила консультацію щодо промислових систем контролю (ICSA), де детально описано вразливості в агенті PTC Axeda та сервері Axeda Desktop. Ознайомитись можна за посиланнями:
+https://www.cisa.gov/uscert/ics/advisories/icsa-22-067-01
+https://www.fda.gov/.../digital-health.../cybersecurity 
+Mozilla випустила оновлення безпеки для усунення вразливостей у багатьох продуктах. Рекомендуємо переглянути та встановити необхідні оновлення:
+https://www.mozilla.org/.../security/advisories/mfsa2022-09/</t>
+  </si>
+  <si>
+    <t>UPD!
+Звертаємо Вашу увагу на нові вразливісті Spring Framework: Spring4Shell (CVE-2022-22965), CVE-2022-22950 та CVE-2022-22963.
+CVE-2022-22965 (Spring4Shell)
+Spring4Shell на даний момент не має CVE ID. Дана вразливість існує в Spring core з JDK від версії 9.0 включною.
+Більше деталей про вразливість та рекомендації за посиланням:
+https://tanzu.vmware.com/security/cve-2022-22965
+CVE-2022-22950
+У версіях Spring Framework 5.3.0 - 5.3.16 і старіших непідтримуваних версіях користувач може надати спеціально створений вираз SpEL, який може спричинити відмову в обслуговуванні.
+Більше деталей про вразливість та рекомендації за посиланням:
+https://tanzu.vmware.com/security/cve-2022-22950
+CVE-2022-22963
+Вразливість знайдено у версіях Spring Cloud Function 3.0.0.RELEASE - 3.2.2.
+Дана вразливість дозволяє зловмиснику за допомогою введення виразу SPEL віддалене виконання довільного коду.
+Більше деталей про вразливість та рекомендації за посиланням:
+https://tanzu.vmware.com/security/cve-2022-22963</t>
+  </si>
+  <si>
+    <t>https://loda.gov.ua//</t>
+  </si>
 </sst>
 </file>
 
@@ -6458,7 +6652,7 @@
     <numFmt numFmtId="164" formatCode="dd.MM.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -6496,6 +6690,15 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6517,7 +6720,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6603,6 +6806,12 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -6612,6 +6821,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -9599,7 +9812,7 @@
       <c r="O45" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="P45" s="20" t="s">
+      <c r="P45" s="7" t="s">
         <v>421</v>
       </c>
       <c r="Q45" s="3" t="s">
@@ -33822,4 +34035,7637 @@
   </hyperlinks>
   <drawing r:id="rId155"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="51.0" customHeight="1">
+      <c r="A2" s="29">
+        <f t="array" ref="A2:T121">SORT('Аркуш1'!A2:T121,2,true)</f>
+        <v>44215</v>
+      </c>
+      <c r="B2" s="30">
+        <v>44215.0</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>680</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>682</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="30">
+        <v>44232.0</v>
+      </c>
+      <c r="B3" s="30">
+        <v>44231.0</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>678</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="30">
+        <v>44272.0</v>
+      </c>
+      <c r="B4" s="34">
+        <v>44257.0</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="R4" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="30">
+        <v>44272.0</v>
+      </c>
+      <c r="B5" s="34">
+        <v>44257.0</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="30">
+        <v>44272.0</v>
+      </c>
+      <c r="B6" s="34">
+        <v>44257.0</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="30">
+        <v>44272.0</v>
+      </c>
+      <c r="B7" s="34">
+        <v>44257.0</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" ht="55.5" customHeight="1">
+      <c r="A8" s="30">
+        <v>44258.0</v>
+      </c>
+      <c r="B8" s="30">
+        <v>44257.0</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" ht="61.5" customHeight="1">
+      <c r="A9" s="30">
+        <v>44258.0</v>
+      </c>
+      <c r="B9" s="30">
+        <v>44258.0</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="42.0" customHeight="1">
+      <c r="A10" s="30">
+        <v>44264.0</v>
+      </c>
+      <c r="B10" s="30">
+        <v>44264.0</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="50.25" customHeight="1">
+      <c r="A11" s="30">
+        <v>44278.0</v>
+      </c>
+      <c r="B11" s="30">
+        <v>44277.0</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>690</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="30">
+        <v>44282.0</v>
+      </c>
+      <c r="B12" s="30">
+        <v>44280.0</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R12" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="T12" s="28" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="30">
+        <v>44282.0</v>
+      </c>
+      <c r="B13" s="30">
+        <v>44280.0</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="S13" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="T13" s="28" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="30">
+        <v>44282.0</v>
+      </c>
+      <c r="B14" s="30">
+        <v>44280.0</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q14" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R14" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="30">
+        <v>44282.0</v>
+      </c>
+      <c r="B15" s="30">
+        <v>44280.0</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q15" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R15" s="33" t="s">
+        <v>666</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="30">
+        <v>44282.0</v>
+      </c>
+      <c r="B16" s="30">
+        <v>44280.0</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R16" s="33" t="s">
+        <v>668</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" ht="87.75" customHeight="1">
+      <c r="A17" s="30">
+        <v>44294.0</v>
+      </c>
+      <c r="B17" s="30">
+        <v>44293.0</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>649</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>645</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>652</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>647</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>653</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" ht="108.0" customHeight="1">
+      <c r="A18" s="30">
+        <v>44298.0</v>
+      </c>
+      <c r="B18" s="30">
+        <v>44298.0</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>645</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>647</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q18" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="S18" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="T18" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" ht="99.0" customHeight="1">
+      <c r="A19" s="30">
+        <v>44299.0</v>
+      </c>
+      <c r="B19" s="30">
+        <v>44299.0</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="N19" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="30">
+        <v>44299.0</v>
+      </c>
+      <c r="B20" s="30">
+        <v>44299.0</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="66.75" customHeight="1">
+      <c r="A21" s="30">
+        <v>44350.0</v>
+      </c>
+      <c r="B21" s="30">
+        <v>44350.0</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" ht="65.25" customHeight="1">
+      <c r="A22" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="B22" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R22" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="S22" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="T22" s="28" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="23" ht="69.75" customHeight="1">
+      <c r="A23" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="B23" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R23" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="T23" s="28" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" ht="87.75" customHeight="1">
+      <c r="A24" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="B24" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="P24" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R24" s="33" t="s">
+        <v>608</v>
+      </c>
+      <c r="S24" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" ht="94.5" customHeight="1">
+      <c r="A25" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="B25" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R25" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="S25" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" s="28" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="26" ht="81.0" customHeight="1">
+      <c r="A26" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="B26" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="P26" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R26" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="S26" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T26" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="B27" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="P27" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q27" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R27" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="S27" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="B28" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="P28" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R28" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="S28" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="B29" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="P29" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q29" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R29" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="S29" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="B30" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q30" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R30" s="33" t="s">
+        <v>615</v>
+      </c>
+      <c r="S30" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T30" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="B31" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q31" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R31" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="S31" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T31" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="B32" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q32" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R32" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="S32" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T32" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="B33" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="L33" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="P33" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q33" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R33" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="S33" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="T33" s="28" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="B34" s="30">
+        <v>44357.0</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L34" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="P34" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q34" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R34" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="S34" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="T34" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="30">
+        <v>44385.0</v>
+      </c>
+      <c r="B35" s="30">
+        <v>44378.0</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="L35" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="P35" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q35" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R35" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="S35" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="T35" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="30">
+        <v>44385.0</v>
+      </c>
+      <c r="B36" s="30">
+        <v>44385.0</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="P36" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q36" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R36" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="S36" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="T36" s="28" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="37" ht="78.75" customHeight="1">
+      <c r="A37" s="30">
+        <v>44390.0</v>
+      </c>
+      <c r="B37" s="30">
+        <v>44388.0</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="P37" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q37" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="R37" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S37" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T37" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="30">
+        <v>44410.0</v>
+      </c>
+      <c r="B38" s="30">
+        <v>44410.0</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="L38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="P38" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q38" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R38" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="S38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T38" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="30">
+        <v>44411.0</v>
+      </c>
+      <c r="B39" s="30">
+        <v>44411.0</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="L39" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="M39" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="P39" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q39" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R39" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S39" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T39" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="30">
+        <v>44414.0</v>
+      </c>
+      <c r="B40" s="30">
+        <v>44414.0</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="K40" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="L40" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="M40" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="P40" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q40" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R40" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S40" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T40" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="30">
+        <v>44428.0</v>
+      </c>
+      <c r="B41" s="30">
+        <v>44429.0</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="L41" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="P41" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q41" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R41" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="S41" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="T41" s="28" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="30">
+        <v>44477.0</v>
+      </c>
+      <c r="B42" s="30">
+        <v>44477.0</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>584</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="L42" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="P42" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q42" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R42" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="S42" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="T42" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="30">
+        <v>44477.0</v>
+      </c>
+      <c r="B43" s="30">
+        <v>44477.0</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>584</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J43" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K43" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="L43" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="P43" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q43" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R43" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="S43" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="T43" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" ht="96.75" customHeight="1">
+      <c r="A44" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="B44" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L44" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N44" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="P44" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q44" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R44" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="S44" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="T44" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" ht="103.5" customHeight="1">
+      <c r="A45" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="B45" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K45" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="L45" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N45" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O45" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="P45" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q45" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R45" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="S45" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="T45" s="28" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="46" ht="137.25" customHeight="1">
+      <c r="A46" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="B46" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="L46" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N46" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="P46" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q46" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R46" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="S46" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="T46" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="47" ht="92.25" customHeight="1">
+      <c r="A47" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="B47" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J47" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K47" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="L47" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M47" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="P47" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q47" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R47" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="S47" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="T47" s="28" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="48" ht="83.25" customHeight="1">
+      <c r="A48" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="B48" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J48" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K48" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L48" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M48" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="P48" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q48" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R48" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="S48" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="T48" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="49" ht="67.5" customHeight="1">
+      <c r="A49" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="B49" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J49" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K49" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="L49" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M49" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N49" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="P49" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q49" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R49" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="S49" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="T49" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="50" ht="63.0" customHeight="1">
+      <c r="A50" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="B50" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K50" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="L50" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N50" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O50" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="P50" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q50" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R50" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="S50" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="T50" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="51" ht="54.0" customHeight="1">
+      <c r="A51" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="B51" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K51" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="L51" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M51" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N51" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="P51" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q51" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R51" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="S51" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="52" ht="60.75" customHeight="1">
+      <c r="A52" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="B52" s="30">
+        <v>44512.0</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K52" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="L52" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N52" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="P52" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q52" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R52" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="S52" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="T52" s="28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="30">
+        <v>44524.0</v>
+      </c>
+      <c r="B53" s="30">
+        <v>44524.0</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K53" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="L53" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M53" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N53" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O53" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="P53" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q53" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R53" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="S53" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="T53" s="28" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="54" ht="76.5" customHeight="1">
+      <c r="A54" s="30">
+        <v>44533.0</v>
+      </c>
+      <c r="B54" s="30">
+        <v>44533.0</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L54" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M54" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N54" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O54" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="P54" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q54" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R54" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="S54" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="T54" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="30">
+        <v>44543.0</v>
+      </c>
+      <c r="B55" s="30">
+        <v>44543.0</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K55" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L55" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M55" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N55" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O55" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="P55" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q55" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R55" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="S55" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="T55" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="30">
+        <v>44543.0</v>
+      </c>
+      <c r="B56" s="30">
+        <v>44543.0</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J56" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K56" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L56" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M56" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N56" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O56" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="P56" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q56" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R56" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="S56" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="T56" s="28" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="30">
+        <v>44543.0</v>
+      </c>
+      <c r="B57" s="30">
+        <v>44543.0</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J57" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K57" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L57" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N57" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O57" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="P57" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q57" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R57" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="S57" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="T57" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="30">
+        <v>44579.0</v>
+      </c>
+      <c r="B58" s="30">
+        <v>44572.0</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J58" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K58" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L58" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M58" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N58" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O58" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="P58" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q58" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R58" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="S58" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T58" s="28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" ht="54.0" customHeight="1">
+      <c r="A59" s="30">
+        <v>44574.0</v>
+      </c>
+      <c r="B59" s="30">
+        <v>44574.0</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J59" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K59" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L59" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M59" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N59" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O59" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="P59" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q59" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R59" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="S59" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="T59" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" ht="83.25" customHeight="1">
+      <c r="A60" s="30">
+        <v>44574.0</v>
+      </c>
+      <c r="B60" s="30">
+        <v>44574.0</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J60" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K60" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L60" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M60" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N60" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O60" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="P60" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q60" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R60" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="S60" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="T60" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" ht="78.75" customHeight="1">
+      <c r="A61" s="30">
+        <v>44574.0</v>
+      </c>
+      <c r="B61" s="30">
+        <v>44574.0</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J61" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K61" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="L61" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M61" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N61" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O61" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="P61" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q61" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R61" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="S61" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="T61" s="28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="30">
+        <v>44574.0</v>
+      </c>
+      <c r="B62" s="30">
+        <v>44574.0</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J62" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K62" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="L62" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M62" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N62" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O62" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="P62" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q62" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R62" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="S62" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="T62" s="28" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="30">
+        <v>44574.0</v>
+      </c>
+      <c r="B63" s="30">
+        <v>44574.0</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J63" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K63" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L63" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M63" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N63" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O63" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="P63" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q63" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R63" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="S63" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="T63" s="28" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="30">
+        <v>44574.0</v>
+      </c>
+      <c r="B64" s="30">
+        <v>44574.0</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J64" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K64" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L64" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M64" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N64" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O64" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="P64" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q64" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R64" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="S64" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="T64" s="28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" ht="119.25" customHeight="1">
+      <c r="A65" s="30">
+        <v>44587.0</v>
+      </c>
+      <c r="B65" s="30">
+        <v>44575.0</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="J65" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="L65" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="M65" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="N65" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="O65" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="P65" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q65" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="R65" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="S65" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="T65" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="30">
+        <v>44593.0</v>
+      </c>
+      <c r="B66" s="30">
+        <v>44588.0</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="H66" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J66" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K66" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="L66" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="M66" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="N66" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O66" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="P66" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q66" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R66" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S66" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T66" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" ht="132.75" customHeight="1">
+      <c r="A67" s="30">
+        <v>44592.0</v>
+      </c>
+      <c r="B67" s="30">
+        <v>44589.0</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J67" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K67" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L67" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="M67" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="N67" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="O67" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="P67" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q67" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R67" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S67" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T67" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="30">
+        <v>44589.0</v>
+      </c>
+      <c r="B68" s="30">
+        <v>44589.0</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="I68" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="J68" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="K68" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L68" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="M68" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="N68" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O68" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="P68" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q68" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R68" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S68" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T68" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="30">
+        <v>44594.0</v>
+      </c>
+      <c r="B69" s="30">
+        <v>44593.0</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="I69" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K69" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L69" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="M69" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="N69" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O69" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="P69" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q69" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R69" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S69" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T69" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="30">
+        <v>44610.0</v>
+      </c>
+      <c r="B70" s="30">
+        <v>44607.0</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J70" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L70" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M70" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N70" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O70" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="P70" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q70" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R70" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S70" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T70" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="30">
+        <v>44610.0</v>
+      </c>
+      <c r="B71" s="30">
+        <v>44607.0</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J71" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L71" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M71" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N71" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O71" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="P71" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q71" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R71" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S71" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T71" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="30">
+        <v>44610.0</v>
+      </c>
+      <c r="B72" s="30">
+        <v>44607.0</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="J72" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="K72" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="L72" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="M72" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N72" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O72" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="P72" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q72" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R72" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S72" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T72" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" ht="47.25" customHeight="1">
+      <c r="A73" s="30">
+        <v>44608.0</v>
+      </c>
+      <c r="B73" s="30">
+        <v>44607.0</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="J73" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="K73" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="L73" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="M73" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N73" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O73" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="P73" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q73" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R73" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S73" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T73" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" ht="58.5" customHeight="1">
+      <c r="A74" s="30">
+        <v>44613.0</v>
+      </c>
+      <c r="B74" s="30">
+        <v>44608.0</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="H74" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="I74" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K74" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L74" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M74" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="N74" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O74" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="P74" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q74" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R74" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S74" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T74" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="30">
+        <v>44614.0</v>
+      </c>
+      <c r="B75" s="30">
+        <v>44614.0</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="H75" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J75" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K75" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="L75" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M75" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N75" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O75" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="P75" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q75" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R75" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="S75" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="T75" s="28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="30">
+        <v>44614.0</v>
+      </c>
+      <c r="B76" s="30">
+        <v>44614.0</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J76" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K76" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="L76" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M76" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N76" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O76" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="P76" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q76" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R76" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="S76" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="T76" s="28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="30">
+        <v>44617.0</v>
+      </c>
+      <c r="B77" s="30">
+        <v>44616.0</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="J77" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="K77" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N77" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O77" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="P77" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q77" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R77" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S77" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T77" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="30">
+        <v>44617.0</v>
+      </c>
+      <c r="B78" s="30">
+        <v>44617.0</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="J78" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="K78" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="L78" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="M78" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N78" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O78" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="P78" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q78" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R78" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S78" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T78" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" ht="65.25" customHeight="1">
+      <c r="A79" s="30">
+        <v>44624.0</v>
+      </c>
+      <c r="B79" s="30">
+        <v>44620.0</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="I79" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J79" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K79" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="L79" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="M79" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="N79" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="O79" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="P79" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q79" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="R79" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="S79" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="T79" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="80" ht="74.25" customHeight="1">
+      <c r="A80" s="30">
+        <v>44624.0</v>
+      </c>
+      <c r="B80" s="30">
+        <v>44623.0</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="J80" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="K80" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="L80" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="M80" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N80" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O80" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="P80" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q80" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="R80" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S80" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T80" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="30">
+        <v>44641.0</v>
+      </c>
+      <c r="B81" s="30">
+        <v>44624.0</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I81" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="J81" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="K81" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L81" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="M81" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N81" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O81" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="P81" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q81" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R81" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S81" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T81" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="30">
+        <v>44636.0</v>
+      </c>
+      <c r="B82" s="30">
+        <v>44627.0</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="J82" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="K82" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L82" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="M82" s="31"/>
+      <c r="N82" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O82" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="P82" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q82" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R82" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S82" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T82" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" ht="110.25" customHeight="1">
+      <c r="A83" s="30">
+        <v>44627.0</v>
+      </c>
+      <c r="B83" s="30">
+        <v>44627.0</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G83" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="H83" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="I83" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J83" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K83" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="L83" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="M83" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="N83" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="O83" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="P83" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q83" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R83" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S83" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T83" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" ht="67.5" customHeight="1">
+      <c r="A84" s="30">
+        <v>44629.0</v>
+      </c>
+      <c r="B84" s="30">
+        <v>44629.0</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I84" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J84" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K84" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="L84" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="M84" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="N84" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="O84" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="P84" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q84" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R84" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="S84" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="T84" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" ht="76.5" customHeight="1">
+      <c r="A85" s="30">
+        <v>44631.0</v>
+      </c>
+      <c r="B85" s="34">
+        <v>44630.0</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="G85" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="H85" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="I85" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J85" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K85" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="L85" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="M85" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="N85" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="O85" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="P85" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q85" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R85" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S85" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T85" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" ht="38.25" customHeight="1">
+      <c r="A86" s="30">
+        <v>44635.0</v>
+      </c>
+      <c r="B86" s="30">
+        <v>44634.0</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="H86" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="I86" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="J86" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="K86" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L86" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M86" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N86" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="O86" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="P86" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q86" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R86" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S86" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T86" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="30">
+        <v>44642.0</v>
+      </c>
+      <c r="B87" s="34">
+        <v>44637.0</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H87" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I87" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="J87" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="K87" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L87" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M87" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N87" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O87" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="P87" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q87" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R87" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S87" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T87" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="30">
+        <v>44637.0</v>
+      </c>
+      <c r="B88" s="30">
+        <v>44637.0</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="G88" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="H88" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I88" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="J88" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="K88" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="L88" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="M88" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="N88" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O88" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="P88" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q88" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R88" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S88" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T88" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="30">
+        <v>44638.0</v>
+      </c>
+      <c r="B89" s="30">
+        <v>44638.0</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H89" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="I89" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="L89" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="M89" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="N89" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O89" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="P89" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q89" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R89" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S89" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T89" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" ht="103.5" customHeight="1">
+      <c r="A90" s="30">
+        <v>44638.0</v>
+      </c>
+      <c r="B90" s="30">
+        <v>44638.0</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="H90" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I90" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="J90" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="K90" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="L90" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M90" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N90" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O90" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="P90" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q90" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R90" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="S90" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T90" s="28" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="91" ht="76.5" customHeight="1">
+      <c r="A91" s="30">
+        <v>44638.0</v>
+      </c>
+      <c r="B91" s="30">
+        <v>44638.0</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="H91" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I91" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="J91" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="K91" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="L91" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M91" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N91" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O91" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="P91" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q91" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R91" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="S91" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="T91" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" ht="87.75" customHeight="1">
+      <c r="A92" s="30">
+        <v>44638.0</v>
+      </c>
+      <c r="B92" s="30">
+        <v>44638.0</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="H92" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="J92" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="K92" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="L92" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M92" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N92" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O92" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="P92" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q92" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R92" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="S92" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="T92" s="28" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="93" ht="74.25" customHeight="1">
+      <c r="A93" s="30">
+        <v>44638.0</v>
+      </c>
+      <c r="B93" s="30">
+        <v>44638.0</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="J93" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="K93" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="L93" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M93" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N93" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O93" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="P93" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q93" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R93" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="S93" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="T93" s="28" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="94" ht="72.0" customHeight="1">
+      <c r="A94" s="30">
+        <v>44643.0</v>
+      </c>
+      <c r="B94" s="30">
+        <v>44641.0</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E94" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F94" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G94" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="H94" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="I94" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K94" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L94" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="M94" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="N94" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="O94" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="P94" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q94" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R94" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S94" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T94" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="30">
+        <v>44642.0</v>
+      </c>
+      <c r="B95" s="30">
+        <v>44642.0</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F95" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G95" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H95" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="I95" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="J95" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="K95" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="L95" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="M95" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="N95" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="O95" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="P95" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q95" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R95" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S95" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T95" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" ht="94.5" customHeight="1">
+      <c r="A96" s="30">
+        <v>44650.0</v>
+      </c>
+      <c r="B96" s="30">
+        <v>44645.0</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H96" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I96" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J96" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K96" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="L96" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="M96" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="N96" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="O96" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="P96" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q96" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R96" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S96" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T96" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" ht="81.0" customHeight="1">
+      <c r="A97" s="30">
+        <v>44648.0</v>
+      </c>
+      <c r="B97" s="34">
+        <v>44648.0</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G97" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H97" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I97" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J97" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K97" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="L97" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M97" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="N97" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="O97" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="P97" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q97" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R97" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S97" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T97" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="30">
+        <v>44657.0</v>
+      </c>
+      <c r="B98" s="30">
+        <v>44648.0</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E98" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G98" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="H98" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I98" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="J98" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="K98" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="L98" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M98" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N98" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O98" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="P98" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q98" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="R98" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S98" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T98" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="30">
+        <v>44657.0</v>
+      </c>
+      <c r="B99" s="30">
+        <v>44648.0</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E99" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="F99" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="H99" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I99" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="J99" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="K99" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="L99" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M99" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N99" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O99" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="P99" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q99" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="R99" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S99" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T99" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="30">
+        <v>44651.0</v>
+      </c>
+      <c r="B100" s="30">
+        <v>44651.0</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="F100" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="H100" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I100" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J100" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K100" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L100" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M100" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N100" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O100" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="P100" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q100" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R100" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="S100" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="T100" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="30">
+        <v>44651.0</v>
+      </c>
+      <c r="B101" s="30">
+        <v>44651.0</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="F101" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="H101" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I101" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J101" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K101" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L101" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M101" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N101" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O101" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="P101" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q101" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R101" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="S101" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="T101" s="28" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="30">
+        <v>44651.0</v>
+      </c>
+      <c r="B102" s="30">
+        <v>44651.0</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="H102" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I102" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J102" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K102" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L102" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M102" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N102" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O102" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="P102" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q102" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R102" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="S102" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="T102" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="30">
+        <v>44656.0</v>
+      </c>
+      <c r="B103" s="34">
+        <v>44653.0</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G103" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H103" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="J103" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="K103" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L103" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="M103" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N103" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O103" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="P103" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q103" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="R103" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S103" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T103" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="30">
+        <v>44655.0</v>
+      </c>
+      <c r="B104" s="30">
+        <v>44654.0</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G104" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H104" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="I104" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J104" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K104" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="L104" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="M104" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="N104" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O104" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="P104" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q104" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R104" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S104" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T104" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" ht="105.75" customHeight="1">
+      <c r="A105" s="30">
+        <v>44665.0</v>
+      </c>
+      <c r="B105" s="30">
+        <v>44658.0</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G105" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I105" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J105" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K105" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="L105" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="M105" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="N105" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="O105" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="P105" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q105" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R105" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S105" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T105" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" ht="110.25" customHeight="1">
+      <c r="A106" s="30">
+        <v>44658.0</v>
+      </c>
+      <c r="B106" s="30">
+        <v>44658.0</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G106" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H106" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I106" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="J106" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="K106" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="L106" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="M106" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N106" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O106" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="P106" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q106" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R106" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S106" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T106" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="30">
+        <v>44663.0</v>
+      </c>
+      <c r="B107" s="34">
+        <v>44659.0</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H107" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I107" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="J107" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K107" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L107" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="M107" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="N107" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="O107" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="P107" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q107" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="R107" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S107" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T107" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="30">
+        <v>44665.0</v>
+      </c>
+      <c r="B108" s="30">
+        <v>44663.0</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G108" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H108" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I108" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="J108" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K108" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L108" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="M108" s="31"/>
+      <c r="N108" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O108" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P108" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q108" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R108" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="S108" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="T108" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="34">
+        <v>44667.0</v>
+      </c>
+      <c r="B109" s="34">
+        <v>44667.0</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="H109" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I109" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J109" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K109" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L109" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M109" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N109" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O109" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="P109" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q109" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="R109" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S109" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T109" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" ht="94.5" customHeight="1">
+      <c r="A110" s="30">
+        <v>44669.0</v>
+      </c>
+      <c r="B110" s="30">
+        <v>44668.0</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G110" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H110" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I110" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K110" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L110" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="M110" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N110" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="O110" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P110" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q110" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R110" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S110" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T110" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="30">
+        <v>44673.0</v>
+      </c>
+      <c r="B111" s="30">
+        <v>44673.0</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="F111" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G111" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J111" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K111" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L111" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M111" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N111" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O111" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="P111" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q111" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R111" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S111" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T111" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" ht="76.5" customHeight="1">
+      <c r="A112" s="30">
+        <v>44677.0</v>
+      </c>
+      <c r="B112" s="30">
+        <v>44677.0</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G112" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H112" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I112" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J112" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K112" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="L112" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="M112" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="N112" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="O112" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P112" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q112" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R112" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S112" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T112" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" ht="83.25" customHeight="1">
+      <c r="A113" s="30">
+        <v>44679.0</v>
+      </c>
+      <c r="B113" s="30">
+        <v>44678.0</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I113" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K113" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L113" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M113" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N113" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O113" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P113" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q113" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R113" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S113" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T113" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" ht="119.25" customHeight="1">
+      <c r="A114" s="30">
+        <v>44679.0</v>
+      </c>
+      <c r="B114" s="30">
+        <v>44678.0</v>
+      </c>
+      <c r="C114" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H114" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J114" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K114" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L114" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="M114" s="31"/>
+      <c r="N114" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="O114" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P114" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q114" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R114" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S114" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T114" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="30">
+        <v>44683.0</v>
+      </c>
+      <c r="B115" s="30">
+        <v>44682.0</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>702</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H115" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I115" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J115" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K115" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L115" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M115" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N115" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O115" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="P115" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q115" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R115" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S115" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T115" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="30">
+        <v>44687.0</v>
+      </c>
+      <c r="B116" s="30">
+        <v>44687.0</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="E116" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G116" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="H116" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="I116" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J116" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K116" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L116" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="M116" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N116" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O116" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="P116" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q116" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="R116" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S116" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T116" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="30">
+        <v>44688.0</v>
+      </c>
+      <c r="B117" s="30">
+        <v>44687.0</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="E117" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="G117" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="H117" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I117" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J117" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K117" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L117" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="M117" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="N117" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="O117" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="P117" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q117" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R117" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S117" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T117" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="34">
+        <v>44691.0</v>
+      </c>
+      <c r="B118" s="34">
+        <v>44690.0</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E118" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G118" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I118" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J118" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K118" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L118" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M118" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N118" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O118" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="P118" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q118" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="R118" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S118" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T118" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="30">
+        <v>44693.0</v>
+      </c>
+      <c r="B119" s="30">
+        <v>44693.0</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E119" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="G119" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="H119" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="I119" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J119" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K119" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="L119" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="M119" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="N119" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O119" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="P119" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q119" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R119" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S119" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T119" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="30">
+        <v>44701.0</v>
+      </c>
+      <c r="B120" s="30">
+        <v>44697.0</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E120" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G120" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I120" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J120" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K120" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="L120" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M120" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N120" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O120" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="P120" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q120" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R120" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="S120" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T120" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="30">
+        <v>44701.0</v>
+      </c>
+      <c r="B121" s="30">
+        <v>44699.0</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E121" s="31" t="s">
+        <v>550</v>
+      </c>
+      <c r="F121" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G121" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H121" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I121" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J121" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="K121" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="L121" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M121" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N121" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O121" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="P121" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q121" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="R121" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="S121" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="T121" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="P2"/>
+    <hyperlink r:id="rId2" ref="P3"/>
+    <hyperlink r:id="rId3" ref="P4"/>
+    <hyperlink r:id="rId4" ref="P5"/>
+    <hyperlink r:id="rId5" ref="P6"/>
+    <hyperlink r:id="rId6" ref="P7"/>
+    <hyperlink r:id="rId7" ref="P8"/>
+    <hyperlink r:id="rId8" ref="P9"/>
+    <hyperlink r:id="rId9" ref="P10"/>
+    <hyperlink r:id="rId10" ref="P11"/>
+    <hyperlink r:id="rId11" ref="P12"/>
+    <hyperlink r:id="rId12" ref="P13"/>
+    <hyperlink r:id="rId13" ref="P14"/>
+    <hyperlink r:id="rId14" ref="P15"/>
+    <hyperlink r:id="rId15" ref="P16"/>
+    <hyperlink r:id="rId16" ref="P17"/>
+    <hyperlink r:id="rId17" ref="P18"/>
+    <hyperlink r:id="rId18" ref="P19"/>
+    <hyperlink r:id="rId19" ref="P20"/>
+    <hyperlink r:id="rId20" ref="P21"/>
+    <hyperlink r:id="rId21" ref="P22"/>
+    <hyperlink r:id="rId22" ref="P23"/>
+    <hyperlink r:id="rId23" ref="P24"/>
+    <hyperlink r:id="rId24" ref="P25"/>
+    <hyperlink r:id="rId25" ref="P26"/>
+    <hyperlink r:id="rId26" ref="P27"/>
+    <hyperlink r:id="rId27" ref="P28"/>
+    <hyperlink r:id="rId28" ref="P29"/>
+    <hyperlink r:id="rId29" ref="P30"/>
+    <hyperlink r:id="rId30" ref="P31"/>
+    <hyperlink r:id="rId31" ref="P32"/>
+    <hyperlink r:id="rId32" ref="P33"/>
+    <hyperlink r:id="rId33" ref="P34"/>
+    <hyperlink r:id="rId34" ref="P35"/>
+    <hyperlink r:id="rId35" ref="P36"/>
+    <hyperlink r:id="rId36" ref="P37"/>
+    <hyperlink r:id="rId37" ref="P38"/>
+    <hyperlink r:id="rId38" ref="P39"/>
+    <hyperlink r:id="rId39" ref="P40"/>
+    <hyperlink r:id="rId40" ref="P41"/>
+    <hyperlink r:id="rId41" ref="P42"/>
+    <hyperlink r:id="rId42" ref="P43"/>
+    <hyperlink r:id="rId43" ref="P44"/>
+    <hyperlink r:id="rId44" ref="P45"/>
+    <hyperlink r:id="rId45" ref="P46"/>
+    <hyperlink r:id="rId46" ref="P47"/>
+    <hyperlink r:id="rId47" ref="P48"/>
+    <hyperlink r:id="rId48" ref="P49"/>
+    <hyperlink r:id="rId49" ref="P50"/>
+    <hyperlink r:id="rId50" ref="P51"/>
+    <hyperlink r:id="rId51" ref="P52"/>
+    <hyperlink r:id="rId52" ref="P53"/>
+    <hyperlink r:id="rId53" ref="P54"/>
+    <hyperlink r:id="rId54" ref="P55"/>
+    <hyperlink r:id="rId55" ref="P56"/>
+    <hyperlink r:id="rId56" ref="P57"/>
+    <hyperlink r:id="rId57" ref="P58"/>
+    <hyperlink r:id="rId58" ref="P59"/>
+    <hyperlink r:id="rId59" ref="P60"/>
+    <hyperlink r:id="rId60" ref="P61"/>
+    <hyperlink r:id="rId61" ref="P62"/>
+    <hyperlink r:id="rId62" ref="P63"/>
+    <hyperlink r:id="rId63" ref="P64"/>
+    <hyperlink r:id="rId64" ref="P65"/>
+    <hyperlink r:id="rId65" ref="P66"/>
+    <hyperlink r:id="rId66" ref="P67"/>
+    <hyperlink r:id="rId67" ref="P68"/>
+    <hyperlink r:id="rId68" ref="P69"/>
+    <hyperlink r:id="rId69" ref="P70"/>
+    <hyperlink r:id="rId70" ref="P71"/>
+    <hyperlink r:id="rId71" ref="P72"/>
+    <hyperlink r:id="rId72" ref="P73"/>
+    <hyperlink r:id="rId73" ref="P74"/>
+    <hyperlink r:id="rId74" ref="P75"/>
+    <hyperlink r:id="rId75" ref="P76"/>
+    <hyperlink r:id="rId76" ref="P77"/>
+    <hyperlink r:id="rId77" ref="P78"/>
+    <hyperlink r:id="rId78" ref="P79"/>
+    <hyperlink r:id="rId79" ref="P80"/>
+    <hyperlink r:id="rId80" ref="P81"/>
+    <hyperlink r:id="rId81" ref="P82"/>
+    <hyperlink r:id="rId82" ref="P83"/>
+    <hyperlink r:id="rId83" ref="P84"/>
+    <hyperlink r:id="rId84" ref="P85"/>
+    <hyperlink r:id="rId85" ref="P86"/>
+    <hyperlink r:id="rId86" ref="P87"/>
+    <hyperlink r:id="rId87" ref="P88"/>
+    <hyperlink r:id="rId88" ref="P89"/>
+    <hyperlink r:id="rId89" ref="P90"/>
+    <hyperlink r:id="rId90" ref="P91"/>
+    <hyperlink r:id="rId91" ref="P92"/>
+    <hyperlink r:id="rId92" ref="P93"/>
+    <hyperlink r:id="rId93" ref="P94"/>
+    <hyperlink r:id="rId94" ref="P95"/>
+    <hyperlink r:id="rId95" ref="P96"/>
+    <hyperlink r:id="rId96" ref="P97"/>
+    <hyperlink r:id="rId97" ref="P98"/>
+    <hyperlink r:id="rId98" ref="P99"/>
+    <hyperlink r:id="rId99" ref="P100"/>
+    <hyperlink r:id="rId100" ref="P101"/>
+    <hyperlink r:id="rId101" ref="P102"/>
+    <hyperlink r:id="rId102" ref="P103"/>
+    <hyperlink r:id="rId103" ref="P104"/>
+    <hyperlink r:id="rId104" ref="P105"/>
+    <hyperlink r:id="rId105" ref="P106"/>
+    <hyperlink r:id="rId106" ref="P107"/>
+    <hyperlink r:id="rId107" ref="P108"/>
+    <hyperlink r:id="rId108" ref="P109"/>
+    <hyperlink r:id="rId109" ref="P110"/>
+    <hyperlink r:id="rId110" ref="P111"/>
+    <hyperlink r:id="rId111" ref="P112"/>
+    <hyperlink r:id="rId112" ref="P113"/>
+    <hyperlink r:id="rId113" ref="P114"/>
+    <hyperlink r:id="rId114" ref="E115"/>
+    <hyperlink r:id="rId115" ref="P115"/>
+    <hyperlink r:id="rId116" ref="P116"/>
+    <hyperlink r:id="rId117" ref="P117"/>
+    <hyperlink r:id="rId118" ref="P118"/>
+    <hyperlink r:id="rId119" ref="P119"/>
+    <hyperlink r:id="rId120" ref="P120"/>
+    <hyperlink r:id="rId121" ref="P121"/>
+  </hyperlinks>
+  <drawing r:id="rId122"/>
+</worksheet>
 </file>